--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_36.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_36.xlsx
@@ -508,246 +508,246 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_9</t>
+          <t>model_1_36_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997253618882428</v>
+        <v>0.9464221664386123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8230117340752343</v>
+        <v>0.7080329810568088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8134863318165823</v>
+        <v>0.7608296380752165</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9991382488812681</v>
+        <v>0.8970482929972292</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001143188472157314</v>
+        <v>0.1720002327223223</v>
       </c>
       <c r="G2" t="n">
-        <v>1.183521349194937</v>
+        <v>1.952384800057625</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6671485764082312</v>
+        <v>0.8554985167105665</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003758610626587317</v>
+        <v>0.2737648353103598</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06724325945331892</v>
+        <v>1.135348863586177</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03381107026045337</v>
+        <v>0.4147291076381333</v>
       </c>
       <c r="L2" t="n">
-        <v>1.017576839152461</v>
+        <v>0.9270429500440679</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03434356081838513</v>
+        <v>0.421260676506424</v>
       </c>
       <c r="N2" t="n">
-        <v>143.5478680304733</v>
+        <v>37.52051889826568</v>
       </c>
       <c r="O2" t="n">
-        <v>284.8830405736897</v>
+        <v>74.4851024864915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_4</t>
+          <t>model_1_36_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997152931163169</v>
+        <v>0.9464029172692042</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8226341294040366</v>
+        <v>0.7080329529025621</v>
       </c>
       <c r="D3" t="n">
-        <v>0.813265376617703</v>
+        <v>0.7610397459348061</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994433315355095</v>
+        <v>0.8975283759821313</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001185100004102723</v>
+        <v>0.1720620280842813</v>
       </c>
       <c r="G3" t="n">
-        <v>1.186046393369946</v>
+        <v>1.952384988325202</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6679389203429036</v>
+        <v>0.8547469730795687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002427963202645997</v>
+        <v>0.2724882188935628</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07856037062001982</v>
+        <v>1.135406308918486</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03442528146729847</v>
+        <v>0.4148036018217312</v>
       </c>
       <c r="L3" t="n">
-        <v>1.018221240555718</v>
+        <v>0.9270167384091291</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03496744523775209</v>
+        <v>0.4213363438989468</v>
       </c>
       <c r="N3" t="n">
-        <v>143.4758562326159</v>
+        <v>37.51980047756498</v>
       </c>
       <c r="O3" t="n">
-        <v>284.8110287758323</v>
+        <v>74.48438406579081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_7</t>
+          <t>model_1_36_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997275932808047</v>
+        <v>0.9464397157400432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8226182851998629</v>
+        <v>0.7080319837019055</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8129907577508104</v>
+        <v>0.7606205289193416</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993698094603422</v>
+        <v>0.8965698618930183</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001133900241046891</v>
+        <v>0.1719438944247547</v>
       </c>
       <c r="G4" t="n">
-        <v>1.186152343636211</v>
+        <v>1.952391469374456</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6689212161064618</v>
+        <v>0.8562464880362856</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002748636825233563</v>
+        <v>0.2750370591157224</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07085078596607336</v>
+        <v>1.135389525696007</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03367343524273832</v>
+        <v>0.4146611802722251</v>
       </c>
       <c r="L4" t="n">
-        <v>1.017434030028497</v>
+        <v>0.9270668469651652</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03420375818672559</v>
+        <v>0.4211916793524052</v>
       </c>
       <c r="N4" t="n">
-        <v>143.5641840968087</v>
+        <v>37.52117410117366</v>
       </c>
       <c r="O4" t="n">
-        <v>284.8993566400251</v>
+        <v>74.48575768939948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_8</t>
+          <t>model_1_36_0</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997281065098554</v>
+        <v>0.9463819140878538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8226114435472186</v>
+        <v>0.708031857259754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8130547527952026</v>
+        <v>0.7612507765817113</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993611683783286</v>
+        <v>0.8980099682980575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001131763911421682</v>
+        <v>0.1721294543283092</v>
       </c>
       <c r="G5" t="n">
-        <v>1.186198093798946</v>
+        <v>1.952392314893705</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6686923095433168</v>
+        <v>0.8539921286918488</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002786325737931909</v>
+        <v>0.2712075889273912</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07034245515084595</v>
+        <v>1.135562885808816</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03364169899725163</v>
+        <v>0.41488486876278</v>
       </c>
       <c r="L5" t="n">
-        <v>1.017401183369252</v>
+        <v>0.9269881383323966</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03417152212709711</v>
+        <v>0.4214188907130799</v>
       </c>
       <c r="N5" t="n">
-        <v>143.5679557595347</v>
+        <v>37.51901688763513</v>
       </c>
       <c r="O5" t="n">
-        <v>284.903128302751</v>
+        <v>74.48360047586094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_6</t>
+          <t>model_1_36_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997158084664342</v>
+        <v>0.9464556437378531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8226051027375303</v>
+        <v>0.708030032419309</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8129863844313709</v>
+        <v>0.7604125303572127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993980698682686</v>
+        <v>0.896092974856604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001182954845481803</v>
+        <v>0.1718927609774313</v>
       </c>
       <c r="G6" t="n">
-        <v>1.186240494822529</v>
+        <v>1.952404517610164</v>
       </c>
       <c r="H6" t="n">
-        <v>0.668936859216517</v>
+        <v>0.8569904868325712</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002625376330138151</v>
+        <v>0.2763051770011511</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07602977644927895</v>
+        <v>1.135541534578275</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03439411062204985</v>
+        <v>0.4145995187858173</v>
       </c>
       <c r="L6" t="n">
-        <v>1.018188258148214</v>
+        <v>0.9270885361536723</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03493578348285022</v>
+        <v>0.4211290467592254</v>
       </c>
       <c r="N6" t="n">
-        <v>143.4794797284282</v>
+        <v>37.52176895860839</v>
       </c>
       <c r="O6" t="n">
-        <v>284.8146522716446</v>
+        <v>74.48635254683421</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997124648762501</v>
+        <v>0.9464699651674542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8224667664641875</v>
+        <v>0.7080270957607905</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8128666360220071</v>
+        <v>0.7602055031367616</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993869814269853</v>
+        <v>0.8956176916476029</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001196872628886051</v>
+        <v>0.1718467850754477</v>
       </c>
       <c r="G7" t="n">
-        <v>1.187165550119353</v>
+        <v>1.952424155059199</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6693651923333997</v>
+        <v>0.8577310111959968</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002673739636356857</v>
+        <v>0.2775690300563945</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07724570730989919</v>
+        <v>1.135691849804253</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0345958469889964</v>
+        <v>0.4145440689184295</v>
       </c>
       <c r="L7" t="n">
-        <v>1.018402247919994</v>
+        <v>0.9271080376748312</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03514069699591379</v>
+        <v>0.4210727236118558</v>
       </c>
       <c r="N7" t="n">
-        <v>143.4560865333692</v>
+        <v>37.52230396719597</v>
       </c>
       <c r="O7" t="n">
-        <v>284.7912590765856</v>
+        <v>74.4868875554218</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_3</t>
+          <t>model_1_36_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.999690891544034</v>
+        <v>0.9464827627126515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8223246900329595</v>
+        <v>0.7080232726233379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8121347202564344</v>
+        <v>0.7599994782444237</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9993942636085538</v>
+        <v>0.895144153098956</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001286672200175321</v>
+        <v>0.171805701280044</v>
       </c>
       <c r="G8" t="n">
-        <v>1.188115615869176</v>
+        <v>1.952449720396948</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6719832125879387</v>
+        <v>0.8584679502898799</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00264197769902596</v>
+        <v>0.2788282437844382</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08066318834679746</v>
+        <v>1.135841138729733</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03587021327195199</v>
+        <v>0.414494512967354</v>
       </c>
       <c r="L8" t="n">
-        <v>1.019782941181823</v>
+        <v>0.9271254641193553</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03643513327392701</v>
+        <v>0.4210223872040886</v>
       </c>
       <c r="N8" t="n">
-        <v>143.3113921670567</v>
+        <v>37.52278216883549</v>
       </c>
       <c r="O8" t="n">
-        <v>284.6465647102731</v>
+        <v>74.48736575706131</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_2</t>
+          <t>model_1_36_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9996387677601142</v>
+        <v>0.9464940334064508</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8222464699796025</v>
+        <v>0.7080185856659842</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8120877775066734</v>
+        <v>0.7597947878346435</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9995712260730926</v>
+        <v>0.8946723197792953</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001503638842281206</v>
+        <v>0.1717695191161237</v>
       </c>
       <c r="G9" t="n">
-        <v>1.188638673726144</v>
+        <v>1.952481062102354</v>
       </c>
       <c r="H9" t="n">
-        <v>0.672151124081937</v>
+        <v>0.8592001160170319</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001870138840608012</v>
+        <v>0.2800829230395123</v>
       </c>
       <c r="J9" t="n">
-        <v>0.09099203775796502</v>
+        <v>1.135987506871529</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03877678225795954</v>
+        <v>0.4144508645377926</v>
       </c>
       <c r="L9" t="n">
-        <v>1.023118863352693</v>
+        <v>0.9271408114470819</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03938747781596114</v>
+        <v>0.420978051355394</v>
       </c>
       <c r="N9" t="n">
-        <v>142.9997344275052</v>
+        <v>37.52320341183447</v>
       </c>
       <c r="O9" t="n">
-        <v>284.3349069707216</v>
+        <v>74.48778700006029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_1</t>
+          <t>model_1_36_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996360529653943</v>
+        <v>0.9465038214248626</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8222306465347941</v>
+        <v>0.7080129844721872</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8121508301196281</v>
+        <v>0.7595908710972872</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995862222660423</v>
+        <v>0.8942022215015204</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001514939247779624</v>
+        <v>0.1717380967660059</v>
       </c>
       <c r="G10" t="n">
-        <v>1.188744485174439</v>
+        <v>1.952518517311066</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6719255885413986</v>
+        <v>0.8599295143627838</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001804731498564295</v>
+        <v>0.2813329885444122</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09038932432452065</v>
+        <v>1.136130943343428</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03892222048881106</v>
+        <v>0.4144129543897076</v>
       </c>
       <c r="L10" t="n">
-        <v>1.023292610214767</v>
+        <v>0.9271541398125788</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03953520655356368</v>
+        <v>0.4209395441603729</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9847598826007</v>
+        <v>37.52356931173017</v>
       </c>
       <c r="O10" t="n">
-        <v>284.3199324258171</v>
+        <v>74.48815289995599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_36_0</t>
+          <t>model_1_36_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9996290146429893</v>
+        <v>0.9465121658653878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8221808916499213</v>
+        <v>0.708006533279935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8120914207445287</v>
+        <v>0.759388365036533</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9995775445783598</v>
+        <v>0.8937338303328342</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001544236452691425</v>
+        <v>0.1717113087154845</v>
       </c>
       <c r="G11" t="n">
-        <v>1.189077196318683</v>
+        <v>1.952561656463361</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6721380924313756</v>
+        <v>0.8606538668001253</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001842580070418654</v>
+        <v>0.2825785145768535</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08985856341884145</v>
+        <v>1.136274536247313</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03929677407487063</v>
+        <v>0.4143806326500848</v>
       </c>
       <c r="L11" t="n">
-        <v>1.023743062848688</v>
+        <v>0.9271655024549961</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03991565898418747</v>
+        <v>0.4209067133856609</v>
       </c>
       <c r="N11" t="n">
-        <v>142.9464513923398</v>
+        <v>37.52388130004807</v>
       </c>
       <c r="O11" t="n">
-        <v>284.2816239355561</v>
+        <v>74.4884648882739</v>
       </c>
     </row>
   </sheetData>
